--- a/doc/RSSECURITY.xlsx
+++ b/doc/RSSECURITY.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>nome</t>
   </si>
@@ -25,7 +25,7 @@
     <t>estoque</t>
   </si>
   <si>
-    <t>categoria</t>
+    <t>id categoria</t>
   </si>
   <si>
     <t>Câmera de Segurança IP Wi-Fi</t>
@@ -37,9 +37,6 @@
     <t>Câmera IP com visão noturna e detecção de movimento</t>
   </si>
   <si>
-    <t>Camera</t>
-  </si>
-  <si>
     <t>Notebook Dell Inspiron 15</t>
   </si>
   <si>
@@ -49,19 +46,13 @@
     <t>Notebook com processador Intel i5 8GB RAM e SSD de 256GB</t>
   </si>
   <si>
-    <t>Aparelho eletronico</t>
-  </si>
-  <si>
-    <t>Sensor de Presença Infravermelho</t>
+    <t>5 de Presença Infravermelho</t>
   </si>
   <si>
     <t>69.90</t>
   </si>
   <si>
-    <t>Sensor para automação de iluminação com ajuste de sensibilidade</t>
-  </si>
-  <si>
-    <t>Sensor</t>
+    <t>5 para automação de iluminação com ajuste de sensibilidade</t>
   </si>
   <si>
     <t>Fone de Ouvido Bluetooth JBL</t>
@@ -73,9 +64,6 @@
     <t>Fone sem fio com até 20h de bateria e microfone embutido</t>
   </si>
   <si>
-    <t>Periferico</t>
-  </si>
-  <si>
     <t>Cabo HDMI 2.0 2 Metros</t>
   </si>
   <si>
@@ -85,19 +73,13 @@
     <t>Cabo HDMI de alta velocidade com suporte a 4K</t>
   </si>
   <si>
-    <t>Cabos e Fios</t>
-  </si>
-  <si>
-    <t>Alarme Residencial Intelbras</t>
+    <t>7 Residencial Intelbras</t>
   </si>
   <si>
     <t>449.00</t>
   </si>
   <si>
-    <t>Central de alarme com teclado e controle remoto</t>
-  </si>
-  <si>
-    <t>Alarme</t>
+    <t>Central de 7 com teclado e controle remoto</t>
   </si>
   <si>
     <t>Smartphone Samsung Galaxy A15</t>
@@ -436,162 +418,162 @@
       <c r="D2" s="2">
         <v>50.0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
+      <c r="E2" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="2">
         <v>20.0</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
+      <c r="E3" s="2">
+        <v>8.0</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>100.0</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
+      <c r="E4" s="2">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>35.0</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
+      <c r="E5" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>200.0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
+      <c r="E6" s="2">
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>15.0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
+      <c r="E7" s="2">
+        <v>7.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>25.0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
+      <c r="E8" s="2">
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>60.0</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
+      <c r="E9" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>40.0</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
+      <c r="E10" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>10.0</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
+      <c r="E11" s="2">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
